--- a/excel/card_detail.xlsx
+++ b/excel/card_detail.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22DE9BC-0116-4D0F-BFD4-BB80F2CCC261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{E072AE1F-5185-4809-81D6-18EA9104928F}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,16 +438,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +467,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -488,7 +487,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>50001</v>
       </c>
@@ -508,7 +507,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>50002</v>
       </c>
@@ -528,7 +527,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>50003</v>
       </c>
@@ -548,7 +547,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -562,7 +561,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -576,7 +575,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>

--- a/excel/card_detail.xlsx
+++ b/excel/card_detail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
     <author>Murphy Ma</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -84,11 +84,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>para</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>number[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[][]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -439,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,19 +471,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -475,80 +494,78 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>50001</v>
       </c>
       <c r="B3" s="1">
-        <v>30001</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
+        <v>30028</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>50002</v>
       </c>
       <c r="B4" s="1">
-        <v>30002</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
+        <v>30029</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>50003</v>
       </c>
       <c r="B5" s="1">
         <v>30003</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>50004</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -557,12 +574,11 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>50005</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -571,12 +587,11 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>50006</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -585,9 +600,72 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>50007</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>50008</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>50009</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>50011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>50012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>50013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>50014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>50015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>50016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>50017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>50018</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/excel/card_detail.xlsx
+++ b/excel/card_detail.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/card_detail.xlsx
+++ b/excel/card_detail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F63D7A3-F672-4136-99C8-4D16AFDB520C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
+    <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,12 +58,41 @@
         </r>
       </text>
     </comment>
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{3CFA93E4-D8EF-4EDB-8A9D-20189A578ED0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对result的影响系数
+1.影响result数组的id
+2.具体影响type.1-拳法，2剑法//也用于卡牌显示
+3.影响个数</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -105,13 +130,21 @@
   </si>
   <si>
     <t>r_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eft_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,3,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,16 +487,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,11 +515,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -505,11 +540,13 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>50001</v>
       </c>
@@ -528,7 +565,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>50002</v>
       </c>
@@ -543,11 +580,13 @@
       <c r="F4" s="1">
         <v>15</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>50003</v>
       </c>
@@ -562,7 +601,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>50004</v>
       </c>
@@ -575,7 +614,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>50005</v>
       </c>
@@ -588,7 +627,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>50006</v>
       </c>
@@ -601,68 +640,68 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>50007</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>50008</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>50009</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50010</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>50011</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>50012</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>50013</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>50014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>50016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>50017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>50018</v>
       </c>

--- a/excel/card_detail.xlsx
+++ b/excel/card_detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F63D7A3-F672-4136-99C8-4D16AFDB520C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229340AD-9200-4ECE-B8C3-9E290B211C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>23,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,2,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +495,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -605,12 +609,20 @@
       <c r="A6" s="1">
         <v>50004</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>30034</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="1">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>

--- a/excel/card_detail.xlsx
+++ b/excel/card_detail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229340AD-9200-4ECE-B8C3-9E290B211C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2483F408-BF03-4E94-8B82-A439E350FAE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/excel/card_detail.xlsx
+++ b/excel/card_detail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2483F408-BF03-4E94-8B82-A439E350FAE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{3CFA93E4-D8EF-4EDB-8A9D-20189A578ED0}">
+    <comment ref="G2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,16 +490,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +524,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -550,7 +549,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>50001</v>
       </c>
@@ -563,13 +562,13 @@
         <v>22</v>
       </c>
       <c r="F3" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>50002</v>
       </c>
@@ -582,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -590,7 +589,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>50003</v>
       </c>
@@ -605,7 +604,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>50004</v>
       </c>
@@ -626,7 +625,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>50005</v>
       </c>
@@ -639,7 +638,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>50006</v>
       </c>
@@ -652,68 +651,68 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>50007</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>50008</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>50009</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50010</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>50011</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>50012</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>50013</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>50014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>50016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>50017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>50018</v>
       </c>

--- a/excel/card_detail.xlsx
+++ b/excel/card_detail.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
